--- a/src/Excel/entregable2/AltaClienteNaturalSinBiometria.xlsx
+++ b/src/Excel/entregable2/AltaClienteNaturalSinBiometria.xlsx
@@ -3,30 +3,234 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AF0AF9-1CA5-433E-8836-376F55A93647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4ACB77-7D24-49D6-AE14-4A277103AEC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AltaClienteNaturalSinBiometria" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="66">
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>contraseña</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>SCISNEROSSPAS</t>
+  </si>
+  <si>
+    <t>1234566</t>
+  </si>
+  <si>
+    <t>mnemocino</t>
+  </si>
+  <si>
+    <t>dni</t>
+  </si>
+  <si>
+    <t>apaterno</t>
+  </si>
+  <si>
+    <t>amaterno</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>ncompleto</t>
+  </si>
+  <si>
+    <t>estadocivil</t>
+  </si>
+  <si>
+    <t>nacimiento</t>
+  </si>
+  <si>
+    <t>gbdirec</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>laynes</t>
+  </si>
+  <si>
+    <t>castro</t>
+  </si>
+  <si>
+    <t>carlos</t>
+  </si>
+  <si>
+    <t>carlos laynes castro</t>
+  </si>
+  <si>
+    <t>SOLTERO</t>
+  </si>
+  <si>
+    <t>19980112</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>Transaccion</t>
+  </si>
+  <si>
+    <t>75356805</t>
+  </si>
+  <si>
+    <t>75356806</t>
+  </si>
+  <si>
+    <t>D75356805</t>
+  </si>
+  <si>
+    <t>D75356806</t>
+  </si>
+  <si>
+    <t>D75356807</t>
+  </si>
+  <si>
+    <t>D75356808</t>
+  </si>
+  <si>
+    <t>D75356809</t>
+  </si>
+  <si>
+    <t>D75356810</t>
+  </si>
+  <si>
+    <t>D75356811</t>
+  </si>
+  <si>
+    <t>D75356812</t>
+  </si>
+  <si>
+    <t>D75356813</t>
+  </si>
+  <si>
+    <t>D75356814</t>
+  </si>
+  <si>
+    <t>75356807</t>
+  </si>
+  <si>
+    <t>75356808</t>
+  </si>
+  <si>
+    <t>75356809</t>
+  </si>
+  <si>
+    <t>75356810</t>
+  </si>
+  <si>
+    <t>75356811</t>
+  </si>
+  <si>
+    <t>75356812</t>
+  </si>
+  <si>
+    <t>75356813</t>
+  </si>
+  <si>
+    <t>75356814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4905003 13:37:55 </t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>17 abr. 2023, 13:38:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4905004 13:38:52 </t>
+  </si>
+  <si>
+    <t>17 abr. 2023, 13:39:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4905005 13:39:49 </t>
+  </si>
+  <si>
+    <t>17 abr. 2023, 13:39:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4905006 13:40:44 </t>
+  </si>
+  <si>
+    <t>17 abr. 2023, 13:40:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4905007 13:41:38 </t>
+  </si>
+  <si>
+    <t>17 abr. 2023, 13:41:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4905008 13:42:29 </t>
+  </si>
+  <si>
+    <t>17 abr. 2023, 13:42:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4905009 13:43:20 </t>
+  </si>
+  <si>
+    <t>17 abr. 2023, 13:43:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4905010 13:44:14 </t>
+  </si>
+  <si>
+    <t>17 abr. 2023, 13:44:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4905011 13:45:20 </t>
+  </si>
+  <si>
+    <t>17 abr. 2023, 13:45:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4905012 13:46:14 </t>
+  </si>
+  <si>
+    <t>17 abr. 2023, 13:46:23</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,13 +238,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +283,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,12 +572,551 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:O12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.453125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.08984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="6.90625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.08984375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.7265625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/Excel/entregable2/AltaClienteNaturalSinBiometria.xlsx
+++ b/src/Excel/entregable2/AltaClienteNaturalSinBiometria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DED8C95-B3AF-4B8B-87E0-99EA6C798A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E86538-F473-489F-9D5A-58E61032BDC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/Excel/entregable2/AltaClienteNaturalSinBiometria.xlsx
+++ b/src/Excel/entregable2/AltaClienteNaturalSinBiometria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E86538-F473-489F-9D5A-58E61032BDC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09192838-9235-4AD8-8A83-FDB86C95C5A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>usuario</t>
   </si>
@@ -115,13 +115,37 @@
   </si>
   <si>
     <t>17 abr. 2023, 16:08:54</t>
+  </si>
+  <si>
+    <t>profesion</t>
+  </si>
+  <si>
+    <t>ubigeo</t>
+  </si>
+  <si>
+    <t>celular</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>ABOGADO</t>
+  </si>
+  <si>
+    <t>AMAZONAS</t>
+  </si>
+  <si>
+    <t>999999999</t>
+  </si>
+  <si>
+    <t>claynes@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,8 +165,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +193,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -171,10 +209,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,8 +222,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -483,59 +527,75 @@
     <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="6.90625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="8.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -573,18 +633,33 @@
         <v>23</v>
       </c>
       <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{2678C814-7D9A-4EA1-9B1C-0E76FE6B09E9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/Excel/entregable2/AltaClienteNaturalSinBiometria.xlsx
+++ b/src/Excel/entregable2/AltaClienteNaturalSinBiometria.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09192838-9235-4AD8-8A83-FDB86C95C5A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0A0E6A-9795-4AB7-952F-AA73063FC2D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>usuario</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>SCISNEROSSPAS</t>
-  </si>
-  <si>
     <t>1234566</t>
   </si>
   <si>
@@ -102,49 +99,62 @@
     <t>Transaccion</t>
   </si>
   <si>
-    <t>75356815</t>
-  </si>
-  <si>
-    <t>D75356815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4905013 16:08:44 </t>
+    <t>profesion</t>
+  </si>
+  <si>
+    <t>ubigeo</t>
+  </si>
+  <si>
+    <t>celular</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>ABOGADO</t>
+  </si>
+  <si>
+    <t>AMAZONAS</t>
+  </si>
+  <si>
+    <t>999999999</t>
+  </si>
+  <si>
+    <t>claynes@gmail.com</t>
+  </si>
+  <si>
+    <t>D75356915</t>
+  </si>
+  <si>
+    <t>75356915</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3 ago. 2023, 21:42:04</t>
+  </si>
+  <si>
+    <t>dmoralesr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4906060 21:46:02 </t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>17 abr. 2023, 16:08:54</t>
-  </si>
-  <si>
-    <t>profesion</t>
-  </si>
-  <si>
-    <t>ubigeo</t>
-  </si>
-  <si>
-    <t>celular</t>
-  </si>
-  <si>
-    <t>correo</t>
-  </si>
-  <si>
-    <t>ABOGADO</t>
-  </si>
-  <si>
-    <t>AMAZONAS</t>
-  </si>
-  <si>
-    <t>999999999</t>
-  </si>
-  <si>
-    <t>claynes@gmail.com</t>
+    <t>3 ago. 2023, 21:46:21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,31 +519,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.453125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.08984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="6.90625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.08984375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.54296875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="9.81640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.36328125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="7.08984375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
@@ -544,52 +554,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>3</v>
@@ -597,61 +607,61 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/AltaClienteNaturalSinBiometria.xlsx
+++ b/src/Excel/entregable2/AltaClienteNaturalSinBiometria.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0A0E6A-9795-4AB7-952F-AA73063FC2D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8E2AF8-A7FC-4BA1-98D7-03AE93509F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>usuario</t>
   </si>
@@ -127,15 +127,6 @@
   </si>
   <si>
     <t>75356915</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3 ago. 2023, 21:42:04</t>
   </si>
   <si>
     <t>dmoralesr</t>
@@ -154,7 +145,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -519,31 +509,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.453125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.08984375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="6.90625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.08984375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.54296875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="9.81640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="17.36328125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="7.08984375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="19.7265625" collapsed="true"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="7.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
@@ -607,7 +597,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -655,13 +645,13 @@
         <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
